--- a/documents/QLDG.xlsx
+++ b/documents/QLDG.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0071B56-19E8-4E72-850E-F705F0EF2157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA5A2EF-71E4-47A5-ACB2-533780CF8F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{8F60E648-569A-452A-969C-CB533A2CDB84}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{FA472BE6-9EB9-4195-98FA-C4F9CE0CD3DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Mã độc giả</t>
   </si>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t>Phongkoghe@admin.npl</t>
+  </si>
+  <si>
+    <t>L.005</t>
+  </si>
+  <si>
+    <t>phucduy201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Duy Phúc </t>
+  </si>
+  <si>
+    <t>31/05/1995</t>
+  </si>
+  <si>
+    <t>TpHCM</t>
+  </si>
+  <si>
+    <t>aasd@gmail.com</t>
+  </si>
+  <si>
+    <t>29/10/2020</t>
   </si>
 </sst>
 </file>
@@ -473,8 +494,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC4F0DC-78D8-4192-A9F0-CD076AFE81DF}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0FAEF5-2B86-4D9A-9D31-737B6D503B25}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,6 +661,38 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
